--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail15 Features.xlsx
@@ -3480,7 +3480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3491,29 +3491,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3534,115 +3532,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3659,72 +3647,66 @@
         <v>1.218233378226472e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0224276193119998</v>
+        <v>4.145734838095914e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.503799665939719</v>
+        <v>4.070394874526893e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4.145734838095914e-07</v>
+        <v>0.01100441536510231</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.070394874526893e-06</v>
+        <v>0.2053754456154376</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01100441536510231</v>
+        <v>0.04223417508803139</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2053754456154376</v>
+        <v>1.883614099878436</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04223417508803139</v>
+        <v>2.338639324508981</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.861895314955508</v>
+        <v>4.663755989533647</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.338639324508981</v>
+        <v>3.087170573680948e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.663755989533647</v>
+        <v>695785267.0767971</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.087170573680948e-16</v>
+        <v>1.714855350188661e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>695785267.0767971</v>
+        <v>149.4552182281266</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.714855350188661e-07</v>
+        <v>0.0001365956834995637</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>149.4552182281266</v>
+        <v>8.85220672286818</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001365956834995637</v>
+        <v>1.559513074466169</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.85220672286818</v>
+        <v>0.01070385137615143</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.559513074466169</v>
+        <v>3.110573064167499</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01070385137615143</v>
+        <v>0.9581622234386559</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.110573064167499</v>
+        <v>1.51713445007152</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9581622234386559</v>
+        <v>36</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.51713445007152</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.5633777142391158</v>
       </c>
     </row>
@@ -3739,72 +3721,66 @@
         <v>1.211901188095252e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.03185974243539318</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.510740767183507</v>
+        <v>4.070867749277981e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.002212812258376272</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.070867749277981e-06</v>
+        <v>0.1731289659700164</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.002212812258376272</v>
+        <v>0.02994272563253664</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1731289659700164</v>
+        <v>1.879479601703263</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02994272563253664</v>
+        <v>2.131220055038088</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.854461513062503</v>
+        <v>5.157541669155611</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.131220055038088</v>
+        <v>4.255768384798421e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.157541669155611</v>
+        <v>523181854.8830547</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.255768384798421e-16</v>
+        <v>2.280130399117239e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>523181854.8830547</v>
+        <v>116.4885744414862</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>2.280130399117239e-07</v>
+        <v>0.0001309051001402471</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>116.4885744414862</v>
+        <v>8.789246825275637</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001309051001402471</v>
+        <v>1.616704377985976</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.789246825275637</v>
+        <v>0.01011253153222934</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.616704377985976</v>
+        <v>3.178243508646567</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01011253153222934</v>
+        <v>0.9587904535890982</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.178243508646567</v>
+        <v>1.495271738794669</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9587904535890982</v>
+        <v>36</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.495271738794669</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.5045970535698756</v>
       </c>
     </row>
@@ -3819,72 +3795,66 @@
         <v>1.217777557952597e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.04046400087269128</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.526792929018009</v>
+        <v>4.070045273254087e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.01052878298460886</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.070045273254087e-06</v>
+        <v>0.1520787918024907</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01052878298460886</v>
+        <v>0.02321640770378921</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1520787918024907</v>
+        <v>1.868354889141338</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02321640770378921</v>
+        <v>1.900359256060207</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.8417123354494</v>
+        <v>4.938335052618556</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.900359256060207</v>
+        <v>7.565194144435117e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.938335052618556</v>
+        <v>293636833.1546699</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.565194144435117e-16</v>
+        <v>4.058872380495876e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>293636833.1546699</v>
+        <v>65.22906313602955</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.058872380495876e-07</v>
+        <v>0.0001293199717794589</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>65.22906313602955</v>
+        <v>8.732430062623829</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001293199717794589</v>
+        <v>1.666843154821863</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.732430062623829</v>
+        <v>0.009861337744190266</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.666843154821863</v>
+        <v>3.216540695152008</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009861337744190266</v>
+        <v>0.9585517345638854</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.216540695152008</v>
+        <v>1.536693229962001</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9585517345638854</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.536693229962001</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.4653533691509467</v>
       </c>
     </row>
@@ -3899,72 +3869,66 @@
         <v>1.223627979145989e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.07171219201512787</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.5457605083888</v>
+        <v>4.068416313226135e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.01566348417759387</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.068416313226135e-06</v>
+        <v>0.1374803100572973</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01566348417759387</v>
+        <v>0.01912414699116343</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1374803100572973</v>
+        <v>1.87173050720351</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01912414699116343</v>
+        <v>1.806643829177498</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.839774700173169</v>
+        <v>4.481227733919933</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.806643829177498</v>
+        <v>1.343461659992865e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.481227733919933</v>
+        <v>167045903.6954353</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.343461659992865e-15</v>
+        <v>7.156284878994627e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>167045903.6954353</v>
+        <v>37.4884027979416</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.156284878994627e-07</v>
+        <v>0.0001144120066492654</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>37.4884027979416</v>
+        <v>7.16395795697387</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001144120066492654</v>
+        <v>1.626709815717081</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.16395795697387</v>
+        <v>0.005871886597681552</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.626709815717081</v>
+        <v>3.281945810737297</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.005871886597681552</v>
+        <v>0.9604313127249144</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.281945810737297</v>
+        <v>1.552245509114063</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9604313127249144</v>
+        <v>16</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.552245509114063</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3567761719205556</v>
       </c>
     </row>
@@ -3979,72 +3943,66 @@
         <v>1.222624847960048e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.118667102794782</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.535634328132593</v>
+        <v>4.066269908992682e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.01902667131326445</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.066269908992682e-06</v>
+        <v>0.126436704071179</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01902667131326445</v>
+        <v>0.01632112976115283</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.126436704071179</v>
+        <v>1.868749999694532</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01632112976115283</v>
+        <v>1.721464872855291</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.832850160134269</v>
+        <v>4.301083841057307</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.721464872855291</v>
+        <v>2.182681878627265e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.301083841057307</v>
+        <v>106162539.5012977</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>2.182681878627265e-15</v>
+        <v>1.131119741772114e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>106162539.5012977</v>
+        <v>24.59988292182107</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.131119741772114e-06</v>
+        <v>0.0001370149424117713</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>24.59988292182107</v>
+        <v>8.502708174130943</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001370149424117713</v>
+        <v>1.235122805599767</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.502708174130943</v>
+        <v>0.00990563861963051</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.235122805599767</v>
+        <v>3.018758963112635</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00990563861963051</v>
+        <v>0.9613359993668292</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.018758963112635</v>
+        <v>1.539366598074401</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9613359993668292</v>
+        <v>16</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.539366598074401</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2578697983405863</v>
       </c>
     </row>
@@ -4059,72 +4017,66 @@
         <v>1.210741773599015e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1586275514035266</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.491852037787624</v>
+        <v>4.063902745742349e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.01871012843466081</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.063902745742349e-06</v>
+        <v>0.1293933466932885</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01871012843466081</v>
+        <v>0.01706701428470559</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1293933466932885</v>
+        <v>1.860064963094653</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01706701428470559</v>
+        <v>1.628173357091818</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.811302236720977</v>
+        <v>4.096764764567737</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.628173357091818</v>
+        <v>3.729320093383654e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.096764764567737</v>
+        <v>62228250.40938772</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.729320093383654e-15</v>
+        <v>1.929041941032333e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>62228250.40938772</v>
+        <v>14.44125186593356</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.929041941032333e-06</v>
+        <v>0.0001727737067179606</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>14.44125186593356</v>
+        <v>10.51356051050301</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001727737067179606</v>
+        <v>1.153475290053353</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.51356051050301</v>
+        <v>0.0190975338295271</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.153475290053353</v>
+        <v>2.703125023327086</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0190975338295271</v>
+        <v>0.96056920016474</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.703125023327086</v>
+        <v>1.594485261273284</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.96056920016474</v>
+        <v>16</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.594485261273284</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2056542361691405</v>
       </c>
     </row>
@@ -4139,72 +4091,66 @@
         <v>1.193005246294663e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1671839288332444</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.459178132465428</v>
+        <v>4.062007584301806e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.01179484717096176</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.062007584301806e-06</v>
+        <v>0.1512093285917043</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.01179484717096176</v>
+        <v>0.02298070362712462</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1512093285917043</v>
+        <v>1.722861952857613</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02298070362712462</v>
+        <v>1.651246672149281</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.653619816702558</v>
+        <v>5.329997638949659</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.651246672149281</v>
+        <v>4.450281957037992e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>5.329997638949659</v>
+        <v>56493460.2840377</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>4.450281957037992e-15</v>
+        <v>1.98028405328472e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>56493460.2840377</v>
+        <v>14.2031240631492</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.98028405328472e-06</v>
+        <v>0.000184370799159054</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>14.2031240631492</v>
+        <v>12.61392216025529</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.000184370799159054</v>
+        <v>1.006948933361097</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>12.61392216025529</v>
+        <v>0.02933542817371628</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.006948933361097</v>
+        <v>2.462281010193644</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02933542817371628</v>
+        <v>0.9552917569695165</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.462281010193644</v>
+        <v>1.698300880759499</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9552917569695165</v>
+        <v>17</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.698300880759499</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2102510460312689</v>
       </c>
     </row>
@@ -4219,72 +4165,66 @@
         <v>1.182360418245664e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1584939788404811</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.458865869769436</v>
+        <v>4.061158928547914e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.002531955291195495</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.061158928547914e-06</v>
+        <v>0.1662267731307563</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.002531955291195495</v>
+        <v>0.02762650125903214</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1662267731307563</v>
+        <v>1.668409662316759</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02762650125903214</v>
+        <v>1.481422356466125</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.587128709539173</v>
+        <v>5.321515864737782</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.481422356466125</v>
+        <v>9.703653455891706e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>5.321515864737782</v>
+        <v>26221237.97243167</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>9.703653455891706e-15</v>
+        <v>4.200746155394221e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>26221237.97243167</v>
+        <v>6.671779157557621</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.200746155394221e-06</v>
+        <v>0.000216908757063499</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>6.671779157557621</v>
+        <v>9.807052756401255</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.000216908757063499</v>
+        <v>1.665386378922811</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.807052756401255</v>
+        <v>0.02086191198836522</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.665386378922811</v>
+        <v>2.834546615705205</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.02086191198836522</v>
+        <v>0.9534360553124985</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.834546615705205</v>
+        <v>1.859865567882365</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9534360553124985</v>
+        <v>17</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.859865567882365</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1623290231391611</v>
       </c>
     </row>
@@ -4299,72 +4239,66 @@
         <v>1.184264614640033e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1614631536904499</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.455758490590557</v>
+        <v>4.061288607556703e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>0.003951932534983127</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.061288607556703e-06</v>
+        <v>0.1684664902471102</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.003951932534983127</v>
+        <v>0.02839461721300424</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.1684664902471102</v>
+        <v>1.654414822486193</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.02839461721300424</v>
+        <v>1.429183292985032</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.56877094349339</v>
+        <v>4.447912210449799</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.429183292985032</v>
+        <v>1.947389750625178e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.447912210449799</v>
+        <v>13380970.22998196</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.947389750625178e-14</v>
+        <v>8.241103044472736e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>13380970.22998196</v>
+        <v>3.486808442750794</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>8.241103044472736e-06</v>
+        <v>0.0002199148650007934</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>3.486808442750794</v>
+        <v>9.224944537780624</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0002199148650007934</v>
+        <v>1.847429446810803</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.224944537780624</v>
+        <v>0.01871466742500293</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.847429446810803</v>
+        <v>2.844620896387172</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01871466742500293</v>
+        <v>0.9532064667137581</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.844620896387172</v>
+        <v>1.845357638171604</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9532064667137581</v>
+        <v>17</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.845357638171604</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.1365755366504179</v>
       </c>
     </row>
@@ -4379,72 +4313,66 @@
         <v>1.192640498347563e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1724434120879607</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.447104199902088</v>
+        <v>4.061889987190272e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>0.005342792569254758</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.061889987190272e-06</v>
+        <v>0.1667360631267446</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.005342792569254758</v>
+        <v>0.02782664719169712</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1667360631267446</v>
+        <v>1.602034330111302</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02782664719169712</v>
+        <v>1.443907835215314</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.516568010914383</v>
+        <v>3.841409060970506</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.443907835215314</v>
+        <v>2.610863584050759e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>3.841409060970506</v>
+        <v>9860172.534342917</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.610863584050759e-14</v>
+        <v>1.078183916614425e-05</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>9860172.534342917</v>
+        <v>2.538359965165428</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.078183916614425e-05</v>
+        <v>0.0001771422474645539</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>2.538359965165428</v>
+        <v>9.91082681314079</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001771422474645539</v>
+        <v>1.331493645080187</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.91082681314079</v>
+        <v>0.01739970658164465</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.331493645080187</v>
+        <v>2.799025784508285</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01739970658164465</v>
+        <v>0.9491651833405395</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.799025784508285</v>
+        <v>1.847642226823015</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9491651833405395</v>
+        <v>14</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.847642226823015</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1413201292104252</v>
       </c>
     </row>
@@ -4459,72 +4387,66 @@
         <v>1.199292564658457e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1772692142226992</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.449158151926571</v>
+        <v>4.062422888769644e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>0.003095568959835354</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.062422888769644e-06</v>
+        <v>0.1680918289874819</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.003095568959835354</v>
+        <v>0.02825928627284361</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1680918289874819</v>
+        <v>1.558935350473126</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02825928627284361</v>
+        <v>1.428634754678389</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.470934170810824</v>
+        <v>3.775822323315115</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.428634754678389</v>
+        <v>2.702353716985539e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.775822323315115</v>
+        <v>9617951.499104939</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.702353716985539e-14</v>
+        <v>1.092351318408335e-05</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>9617951.499104939</v>
+        <v>2.499812063743203</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.092351318408335e-05</v>
+        <v>0.0001751336297125265</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2.499812063743203</v>
+        <v>11.13252460920812</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001751336297125265</v>
+        <v>1.090175127177919</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>11.13252460920812</v>
+        <v>0.02170485437564263</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.090175127177919</v>
+        <v>2.532495911433271</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.02170485437564263</v>
+        <v>0.9463143036108234</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.532495911433271</v>
+        <v>1.886230589400929</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9463143036108234</v>
+        <v>7</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.886230589400929</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.148582716957371</v>
       </c>
     </row>
@@ -4539,72 +4461,66 @@
         <v>1.200798674723375e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.177486543326125</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.451372714516294</v>
+        <v>4.062559387701262e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.001107725439225416</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.062559387701262e-06</v>
+        <v>0.1717854691357286</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.001107725439225416</v>
+        <v>0.02950622847209957</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1717854691357286</v>
+        <v>1.536711083671966</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02950622847209957</v>
+        <v>1.408423704803889</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.445298653688086</v>
+        <v>3.7807757238536</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.408423704803889</v>
+        <v>2.695277353522541e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.7807757238536</v>
+        <v>9605776.174510805</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.695277353522541e-14</v>
+        <v>1.086450811899616e-05</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>9605776.174510805</v>
+        <v>2.486957639594886</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>1.086450811899616e-05</v>
+        <v>0.0001826270178944847</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>2.486957639594886</v>
+        <v>11.13416786841158</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001826270178944847</v>
+        <v>1.10688240116781</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.13416786841158</v>
+        <v>0.02264021554678659</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.10688240116781</v>
+        <v>2.412658143404622</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02264021554678659</v>
+        <v>0.9453236344684661</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.412658143404622</v>
+        <v>1.884686180155005</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9453236344684661</v>
+        <v>8</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.884686180155005</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.14743756647714</v>
       </c>
     </row>
@@ -4619,72 +4535,66 @@
         <v>1.196622083736918e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.1808016863437155</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.439356116761904</v>
+        <v>4.062111783116152e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.0065800348534133</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.062111783116152e-06</v>
+        <v>0.1754919485125535</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0065800348534133</v>
+        <v>0.03083589364545618</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1754919485125535</v>
+        <v>1.531302341068142</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.03083589364545618</v>
+        <v>1.399516506630526</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.441033182781602</v>
+        <v>3.776014043627526</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.399516506630526</v>
+        <v>2.702079309665978e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.776014043627526</v>
+        <v>9638835.651845034</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.702079309665978e-14</v>
+        <v>1.083466043730619e-05</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>9638835.651845034</v>
+        <v>2.51042495093549</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.083466043730619e-05</v>
+        <v>0.0001841537827108805</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>2.51042495093549</v>
+        <v>9.7023845792377</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001841537827108805</v>
+        <v>1.244619960983253</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.7023845792377</v>
+        <v>0.01733554957056917</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.244619960983253</v>
+        <v>2.58394772852794</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01733554957056917</v>
+        <v>0.9454972437582929</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.58394772852794</v>
+        <v>1.866244172266049</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9454972437582929</v>
+        <v>8</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.866244172266049</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1369981465425198</v>
       </c>
     </row>
@@ -4699,72 +4609,66 @@
         <v>1.186212475825629e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.1908577735629857</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.407992161759733</v>
+        <v>4.060942142901191e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.01327738552194479</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.060942142901191e-06</v>
+        <v>0.1773598008772167</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.01327738552194479</v>
+        <v>0.03162654977544432</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1773598008772167</v>
+        <v>1.553371433451635</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03162654977544432</v>
+        <v>1.451081193675891</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.464326133749867</v>
+        <v>3.745378582300577</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.451081193675891</v>
+        <v>2.74646360520438e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.745378582300577</v>
+        <v>9792563.588676505</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.74646360520438e-14</v>
+        <v>1.08444910560406e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>9792563.588676505</v>
+        <v>2.633702093960072</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.08444910560406e-05</v>
+        <v>0.0001964018840716452</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>2.633702093960072</v>
+        <v>8.845093083892836</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001964018840716452</v>
+        <v>1.521069512817452</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.845093083892836</v>
+        <v>0.01536563331617058</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.521069512817452</v>
+        <v>2.677563682538084</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01536563331617058</v>
+        <v>0.9451324698575088</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.677563682538084</v>
+        <v>1.876121848692853</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9451324698575088</v>
+        <v>7</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.876121848692853</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1282766857586208</v>
       </c>
     </row>
@@ -4779,72 +4683,66 @@
         <v>1.167131821257906e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2010164048645503</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.366130907886673</v>
+        <v>4.058924016977252e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.02101540423825693</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.058924016977252e-06</v>
+        <v>0.1765266770132291</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.02101540423825693</v>
+        <v>0.03159676299505756</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1765266770132291</v>
+        <v>1.555127813472713</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03159676299505756</v>
+        <v>1.443278394077248</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.464512411446728</v>
+        <v>3.695032803543575</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.443278394077248</v>
+        <v>2.821816035410033e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.695032803543575</v>
+        <v>9480466.390956303</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.821816035410033e-14</v>
+        <v>1.120158338855557e-05</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>9480466.390956303</v>
+        <v>2.536226891198436</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>1.120158338855557e-05</v>
+        <v>0.0001872163843855685</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2.536226891198436</v>
+        <v>9.736122392928761</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001872163843855685</v>
+        <v>1.319517490011093</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.736122392928761</v>
+        <v>0.01774663034559191</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.319517490011093</v>
+        <v>2.671926353170754</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01774663034559191</v>
+        <v>0.9439896258157533</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.671926353170754</v>
+        <v>1.891448605011687</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9439896258157533</v>
+        <v>7</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.891448605011687</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1318766069055</v>
       </c>
     </row>
@@ -4859,72 +4757,66 @@
         <v>1.137847773527574e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.1944719154385734</v>
+        <v>3.643654727447346e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.347740237803956</v>
+        <v>4.056165614097425e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3.643654727447346e-07</v>
+        <v>-0.02591650047126177</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.056165614097425e-06</v>
+        <v>0.1788636976075691</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.02591650047126177</v>
+        <v>0.03266377823828306</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1788636976075691</v>
+        <v>1.563800754711739</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.03266377823828306</v>
+        <v>1.415288245737735</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.473032703215552</v>
+        <v>3.640320084256905</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.415288245737735</v>
+        <v>2.907275243769921e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.640320084256905</v>
+        <v>9207030.737249037</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.907275243769921e-14</v>
+        <v>1.155239235395155e-05</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>9207030.737249037</v>
+        <v>2.464480216486151</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>1.155239235395155e-05</v>
+        <v>0.0001835656871631184</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>2.464480216486151</v>
+        <v>11.47648304843226</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001835656871631184</v>
+        <v>1.074721875124738</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.47648304843226</v>
+        <v>0.0241773748241632</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.074721875124738</v>
+        <v>2.450318428789254</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0241773748241632</v>
+        <v>0.9455366466636045</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.450318428789254</v>
+        <v>1.868773118033132</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9455366466636045</v>
+        <v>2</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.868773118033132</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1413800433121188</v>
       </c>
     </row>
@@ -5301,7 +5193,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.794733352553521</v>
+        <v>1.794981997055072</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.646110213639355</v>
@@ -5390,7 +5282,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.77690550936746</v>
+        <v>1.779551204975733</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.364743520401584</v>
@@ -5479,7 +5371,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.780158399166775</v>
+        <v>1.782043960804649</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.516173089247003</v>
@@ -5568,7 +5460,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.775823411707093</v>
+        <v>1.77247109355625</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.481596287403304</v>
@@ -5657,7 +5549,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.756179798967231</v>
+        <v>1.754030964341099</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.302550117443356</v>
@@ -5746,7 +5638,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.752392529008474</v>
+        <v>1.747324400474776</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.349451925450348</v>
@@ -5835,7 +5727,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.763166659044904</v>
+        <v>1.757297259319935</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.087611850957164</v>
@@ -5924,7 +5816,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.756650631006184</v>
+        <v>1.745095281346964</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.235271426600638</v>
@@ -6013,7 +5905,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.728375799301461</v>
+        <v>1.714544829181036</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.157233738776888</v>
@@ -6102,7 +5994,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.70683389375875</v>
+        <v>1.688990441650698</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.200024827906176</v>
@@ -6191,7 +6083,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.688023821251385</v>
+        <v>1.6662795057637</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.011735896761563</v>
@@ -6280,7 +6172,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.694385405678439</v>
+        <v>1.667464988142026</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.458976046721573</v>
@@ -6369,7 +6261,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.70118153172356</v>
+        <v>1.67630872928363</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.035170896653736</v>
@@ -6458,7 +6350,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.720803340126264</v>
+        <v>1.687808526455228</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.613048258818802</v>
@@ -6547,7 +6439,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.732054915311474</v>
+        <v>1.705771234271565</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.832748929547261</v>
@@ -6636,7 +6528,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.748392184572387</v>
+        <v>1.717699990651255</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.224238679580788</v>
@@ -6725,7 +6617,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.74198841701284</v>
+        <v>1.711776838288291</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.951876041225129</v>
@@ -6814,7 +6706,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.740684821822641</v>
+        <v>1.70704720394333</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.957584202831431</v>
@@ -6903,7 +6795,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.726122297051414</v>
+        <v>1.698116054878918</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.630078715998124</v>
@@ -6992,7 +6884,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.75378167460241</v>
+        <v>1.722962997738935</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.792473204602842</v>
@@ -7081,7 +6973,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.736465303308389</v>
+        <v>1.705363180380581</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.175331518536241</v>
@@ -7170,7 +7062,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.721929341511565</v>
+        <v>1.697818714647738</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.954544680472679</v>
@@ -7259,7 +7151,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.647308518405946</v>
+        <v>1.634346261210441</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.978748983525392</v>
@@ -7348,7 +7240,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.651545120124286</v>
+        <v>1.641924565816054</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.95675111641415</v>
@@ -7437,7 +7329,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.653420084220066</v>
+        <v>1.647476278760217</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.822561648345572</v>
@@ -7526,7 +7418,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.637859958039183</v>
+        <v>1.635609220151795</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.93700973698238</v>
@@ -7615,7 +7507,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.637107194300887</v>
+        <v>1.638585477579921</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.658287140665736</v>
@@ -7704,7 +7596,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.667380836992174</v>
+        <v>1.665372603103442</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.964513841731737</v>
@@ -7793,7 +7685,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.665793488402605</v>
+        <v>1.667433349629777</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.922094812694894</v>
@@ -7882,7 +7774,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.674933680955051</v>
+        <v>1.675089566733528</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.896717920702709</v>
@@ -7971,7 +7863,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.678631615819134</v>
+        <v>1.684349112229272</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.083667934066837</v>
@@ -8060,7 +7952,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.683707550636613</v>
+        <v>1.687477618134055</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.014397086577729</v>
@@ -8149,7 +8041,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.676783900146512</v>
+        <v>1.688307891695319</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.780831840934373</v>
@@ -8238,7 +8130,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.6764251120398</v>
+        <v>1.689222678774509</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.891588957782324</v>
@@ -8327,7 +8219,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.684585072505451</v>
+        <v>1.703630272817592</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.93619173816025</v>
@@ -8416,7 +8308,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.675984839261259</v>
+        <v>1.701240952937604</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.085306597783469</v>
@@ -8505,7 +8397,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.66070315037196</v>
+        <v>1.690062213857784</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.955488737926657</v>
@@ -8594,7 +8486,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.743695567000039</v>
+        <v>1.76750381504767</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.788041686492474</v>
@@ -8683,7 +8575,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.749446354422359</v>
+        <v>1.772391853862994</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.933708959545928</v>
@@ -8772,7 +8664,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.752735688432108</v>
+        <v>1.780780441830491</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.920176745280366</v>
@@ -8861,7 +8753,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.78583362714095</v>
+        <v>1.812048912886822</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.937798218751368</v>
@@ -8950,7 +8842,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.791786856419781</v>
+        <v>1.81690999553379</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.974636921776528</v>
@@ -9039,7 +8931,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.803680779916257</v>
+        <v>1.830553927770824</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.768729305512844</v>
@@ -9128,7 +9020,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.84415121232512</v>
+        <v>1.867421866305441</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.939400332461128</v>
@@ -9217,7 +9109,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.849281903385642</v>
+        <v>1.870563939580854</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.881539950083914</v>
@@ -9306,7 +9198,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.854016776561227</v>
+        <v>1.880478606820708</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.06103615843951</v>
@@ -9395,7 +9287,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.858677618258644</v>
+        <v>1.888448869773745</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.050475851550617</v>
@@ -9484,7 +9376,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.865199014890917</v>
+        <v>1.889427465884464</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.329741042397775</v>
@@ -9573,7 +9465,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.878039541149558</v>
+        <v>1.900139170346251</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.069495066236897</v>
@@ -9662,7 +9554,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.822712055458972</v>
+        <v>1.841255065078574</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.099983649980134</v>
@@ -9751,7 +9643,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.800178595037847</v>
+        <v>1.824551408267591</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.355161896779605</v>
@@ -9840,7 +9732,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.797383325982754</v>
+        <v>1.818475510122978</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.315038501081433</v>
@@ -9929,7 +9821,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.752777219676166</v>
+        <v>1.780668721877023</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.455799826188825</v>
@@ -10018,7 +9910,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.764217872954971</v>
+        <v>1.792323333905684</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.506203563399716</v>
@@ -10107,7 +9999,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.73675664591968</v>
+        <v>1.764015586345338</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.519261724582025</v>
@@ -10196,7 +10088,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.740336906866385</v>
+        <v>1.767532555031384</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.55664892455498</v>
@@ -10285,7 +10177,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.742549378035326</v>
+        <v>1.769388188827975</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.668452472591408</v>
@@ -10374,7 +10266,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.726562278467023</v>
+        <v>1.75378771112314</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.641231218616282</v>
@@ -10463,7 +10355,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.732625458496429</v>
+        <v>1.760037885942431</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.49380733942253</v>
@@ -10552,7 +10444,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.736207631439648</v>
+        <v>1.759206798806721</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.648519008049345</v>
@@ -10641,7 +10533,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.721602800932289</v>
+        <v>1.743291163804301</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.537213209979616</v>
@@ -10927,7 +10819,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.91703911290113</v>
+        <v>1.962814799637699</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.196387058444356</v>
@@ -11016,7 +10908,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.903599924708252</v>
+        <v>1.952335755585392</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.29102612243398</v>
@@ -11105,7 +10997,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.90083722264548</v>
+        <v>1.948241416936418</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.550586961215749</v>
@@ -11194,7 +11086,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.891939898491511</v>
+        <v>1.93494575867777</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.873703731087029</v>
@@ -11283,7 +11175,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.88848836146511</v>
+        <v>1.93713025016373</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.798823487311696</v>
@@ -11372,7 +11264,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.863408769909154</v>
+        <v>1.905545444623959</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.61420544163962</v>
@@ -11461,7 +11353,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.836541274670682</v>
+        <v>1.863630674524839</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.717677847770597</v>
@@ -11550,7 +11442,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.809544839793007</v>
+        <v>1.818826043193904</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.137115723269619</v>
@@ -11639,7 +11531,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.78167691517221</v>
+        <v>1.776812008638031</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.313171457877382</v>
@@ -11728,7 +11620,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.738422933035949</v>
+        <v>1.716397301167293</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.106140762587087</v>
@@ -11817,7 +11709,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.711970566624694</v>
+        <v>1.674766614762212</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.202703285973684</v>
@@ -11906,7 +11798,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.698965112453973</v>
+        <v>1.65397636778677</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.431713464273529</v>
@@ -11995,7 +11887,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.695985343924483</v>
+        <v>1.645277100733884</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.072341940633158</v>
@@ -12084,7 +11976,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.689613123718818</v>
+        <v>1.637127970705647</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.235274445901487</v>
@@ -12173,7 +12065,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.669121416280971</v>
+        <v>1.618547988618466</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.376130216732816</v>
@@ -12262,7 +12154,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.670265368456894</v>
+        <v>1.611397288371354</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.903688878670553</v>
@@ -12351,7 +12243,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.671064910965198</v>
+        <v>1.609561087457659</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.13279116685141</v>
@@ -12440,7 +12332,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666826582968347</v>
+        <v>1.596990733612369</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.05930483625646</v>
@@ -12529,7 +12421,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.67020802330641</v>
+        <v>1.598355724168518</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.021325998483992</v>
@@ -12618,7 +12510,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.680920824876499</v>
+        <v>1.605004071284787</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.132201353775028</v>
@@ -12707,7 +12599,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.665011876800683</v>
+        <v>1.586890358333592</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.133178986395666</v>
@@ -12796,7 +12688,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.656501433438917</v>
+        <v>1.57948712237811</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.166777440496679</v>
@@ -12885,7 +12777,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.654540963370067</v>
+        <v>1.578480430516875</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.14547625545003</v>
@@ -12974,7 +12866,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.663224888288321</v>
+        <v>1.59894594263112</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.235969125355787</v>
@@ -13063,7 +12955,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.680401686397545</v>
+        <v>1.620959174353466</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.352717883197446</v>
@@ -13152,7 +13044,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.680892034235621</v>
+        <v>1.622980163948596</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.282193754122205</v>
@@ -13241,7 +13133,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.679608925077504</v>
+        <v>1.623893839909433</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.17853430401639</v>
@@ -13330,7 +13222,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.677157083093655</v>
+        <v>1.611554105003178</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.345312685594888</v>
@@ -13419,7 +13311,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.678774216054627</v>
+        <v>1.616574065290082</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.03086266946449</v>
@@ -13508,7 +13400,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.698043405089185</v>
+        <v>1.629878431464419</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.373354152711079</v>
@@ -13597,7 +13489,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.710902778050987</v>
+        <v>1.644638902395714</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.046226752081941</v>
@@ -13686,7 +13578,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.703727984058207</v>
+        <v>1.649632235649348</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.729700030089445</v>
@@ -13775,7 +13667,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.707368812763488</v>
+        <v>1.655837133932043</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.398499985905019</v>
@@ -13864,7 +13756,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.706065334468666</v>
+        <v>1.654347532805904</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.543426890844437</v>
@@ -13953,7 +13845,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.713463825286123</v>
+        <v>1.661056553001994</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.405665051857367</v>
@@ -14042,7 +13934,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.739706650050433</v>
+        <v>1.68999423024119</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.430604321015383</v>
@@ -14131,7 +14023,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.749293638056189</v>
+        <v>1.705798873380168</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.638187342888437</v>
@@ -14220,7 +14112,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.771509788169103</v>
+        <v>1.732678522612002</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.517718868304959</v>
@@ -14309,7 +14201,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.763463723024995</v>
+        <v>1.714993782791694</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.793417306172901</v>
@@ -14398,7 +14290,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.756649452855829</v>
+        <v>1.712795923650087</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.795371106725076</v>
@@ -14487,7 +14379,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.762571645084764</v>
+        <v>1.713171033313303</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.783800824850493</v>
@@ -14576,7 +14468,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.764272590441438</v>
+        <v>1.716747212346372</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.614527200927804</v>
@@ -14665,7 +14557,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.766728766360311</v>
+        <v>1.730405050943044</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.554807458017672</v>
@@ -14754,7 +14646,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.774342837132333</v>
+        <v>1.735956889787488</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.996301829016352</v>
@@ -14843,7 +14735,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.775508317054373</v>
+        <v>1.73293888459176</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.144039749688437</v>
@@ -14932,7 +14824,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.777966977549331</v>
+        <v>1.734126584255405</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.853713394020842</v>
@@ -15021,7 +14913,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.792491986058962</v>
+        <v>1.747715982758512</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.786289042218248</v>
@@ -15110,7 +15002,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.793827781121418</v>
+        <v>1.744299687293963</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.327604559669861</v>
@@ -15199,7 +15091,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.794734340905981</v>
+        <v>1.748449874969253</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.997846678852543</v>
@@ -15288,7 +15180,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.785111222378523</v>
+        <v>1.744012123719572</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.634453486793713</v>
@@ -15377,7 +15269,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.756243945627662</v>
+        <v>1.724039601639501</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.139146964434314</v>
@@ -15466,7 +15358,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.74879290008856</v>
+        <v>1.712900536706933</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.152423783237032</v>
@@ -15555,7 +15447,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.721621953468206</v>
+        <v>1.689176095007594</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.144474136262712</v>
@@ -15644,7 +15536,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.725593014447156</v>
+        <v>1.691875266084084</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.116638229917757</v>
@@ -15733,7 +15625,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.725224299796423</v>
+        <v>1.688282833555268</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.056462181148992</v>
@@ -15822,7 +15714,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.721704942939339</v>
+        <v>1.689961098557383</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.241233164715734</v>
@@ -15911,7 +15803,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.718803212793611</v>
+        <v>1.675279231858183</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.292060661051085</v>
@@ -16000,7 +15892,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.713997535008578</v>
+        <v>1.666385140287136</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.984928296541282</v>
@@ -16089,7 +15981,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.712237991629938</v>
+        <v>1.663832711038917</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.929981359412904</v>
@@ -16178,7 +16070,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.708090114583626</v>
+        <v>1.659109995293676</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.186431497636635</v>
@@ -16267,7 +16159,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.699308994875282</v>
+        <v>1.655858923218046</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.162525228285594</v>
@@ -16553,7 +16445,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.847328866128005</v>
+        <v>1.854031181173944</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>4.12291912490852</v>
@@ -16642,7 +16534,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.844799962228468</v>
+        <v>1.854306498429355</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>4.216306322040077</v>
@@ -16731,7 +16623,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.852641264350283</v>
+        <v>1.862778180849314</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.812759061923889</v>
@@ -16820,7 +16712,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.851372300537393</v>
+        <v>1.85461597469549</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>4.04391524908827</v>
@@ -16909,7 +16801,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.843308306711931</v>
+        <v>1.846690413322091</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.639741139775707</v>
@@ -16998,7 +16890,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.834887512720388</v>
+        <v>1.828142264963307</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.761586920915968</v>
@@ -17087,7 +16979,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.820254213036665</v>
+        <v>1.809588067243381</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.312853319907193</v>
@@ -17176,7 +17068,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.809802231743124</v>
+        <v>1.795387613205556</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.653458829284275</v>
@@ -17265,7 +17157,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.791271502327682</v>
+        <v>1.77277831724638</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.423631619487424</v>
@@ -17354,7 +17246,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.773393503261588</v>
+        <v>1.74392235961704</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.854186294009774</v>
@@ -17443,7 +17335,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.756541075011418</v>
+        <v>1.721473584446392</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.422007263868759</v>
@@ -17532,7 +17424,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.771824705252935</v>
+        <v>1.729836786342014</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.234349807640544</v>
@@ -17621,7 +17513,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.774572662396806</v>
+        <v>1.739255567312432</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.452997425476639</v>
@@ -17710,7 +17602,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.787034744096468</v>
+        <v>1.750434361810477</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.589203301570866</v>
@@ -17799,7 +17691,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.788402769129142</v>
+        <v>1.751195051002828</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.852543110989294</v>
@@ -17888,7 +17780,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.791166909642847</v>
+        <v>1.753051453557634</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.843186338715266</v>
@@ -17977,7 +17869,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.792053831603238</v>
+        <v>1.754848096710503</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.175024265060081</v>
@@ -18066,7 +17958,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.780545628365176</v>
+        <v>1.73918223857716</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.139434860737848</v>
@@ -18155,7 +18047,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.776864586650374</v>
+        <v>1.739157575024591</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.191164760354425</v>
@@ -18244,7 +18136,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.77560642771796</v>
+        <v>1.735266626725339</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.759437729231081</v>
@@ -18333,7 +18225,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.765066244524887</v>
+        <v>1.72964802507719</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.781440536595246</v>
@@ -18422,7 +18314,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.765931024121474</v>
+        <v>1.736006200577628</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.698448931706586</v>
@@ -18511,7 +18403,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.737515513571284</v>
+        <v>1.713672494807771</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.931636522872865</v>
@@ -18600,7 +18492,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.741536340477896</v>
+        <v>1.722060281139844</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.774342971295163</v>
@@ -18689,7 +18581,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.749630258266027</v>
+        <v>1.738814427127174</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.655993365314008</v>
@@ -18778,7 +18670,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.753518810488928</v>
+        <v>1.739930039352348</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.58807143926791</v>
@@ -18867,7 +18759,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.753292059232779</v>
+        <v>1.736774586967192</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.870824422469918</v>
@@ -18956,7 +18848,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.755512225703831</v>
+        <v>1.731069421991575</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.028899281351719</v>
@@ -19045,7 +18937,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.744802894607397</v>
+        <v>1.720612992785117</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.631463142710105</v>
@@ -19134,7 +19026,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.743833457989779</v>
+        <v>1.718735951090737</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.66783381248927</v>
@@ -19223,7 +19115,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.740107114105356</v>
+        <v>1.712731576398856</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.055003025843748</v>
@@ -19312,7 +19204,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.744825301025448</v>
+        <v>1.71554487593823</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.057402086872901</v>
@@ -19401,7 +19293,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.752977553058648</v>
+        <v>1.726722626676262</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.097747730337133</v>
@@ -19490,7 +19382,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.749587202489692</v>
+        <v>1.724456612480687</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.890989137505</v>
@@ -19579,7 +19471,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.760921470314821</v>
+        <v>1.738445016719234</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.277627417174398</v>
@@ -19668,7 +19560,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.772119290835552</v>
+        <v>1.745749621107519</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.594091665484152</v>
@@ -19757,7 +19649,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.765279013936748</v>
+        <v>1.740904716258215</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.791647420834523</v>
@@ -19846,7 +19738,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.795761998403021</v>
+        <v>1.762820132276608</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.305765585070006</v>
@@ -19935,7 +19827,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.797712412856274</v>
+        <v>1.761278339322534</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.057919491439646</v>
@@ -20024,7 +19916,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.792773128462999</v>
+        <v>1.755449642200831</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.884033568441365</v>
@@ -20113,7 +20005,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.803768518557905</v>
+        <v>1.771872114552553</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.013527287811598</v>
@@ -20202,7 +20094,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.806016751697205</v>
+        <v>1.778593109142357</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.040080716624769</v>
@@ -20291,7 +20183,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.820223932497626</v>
+        <v>1.795603599946854</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.564004732584055</v>
@@ -20380,7 +20272,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.845160209715965</v>
+        <v>1.817996096176915</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.873097712937017</v>
@@ -20469,7 +20361,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.856051849771584</v>
+        <v>1.830939421956292</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.864067334995372</v>
@@ -20558,7 +20450,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.856601545473485</v>
+        <v>1.833557742257002</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.837673585382707</v>
@@ -20647,7 +20539,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.860840963489111</v>
+        <v>1.838736290378645</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.969270483270044</v>
@@ -20736,7 +20628,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.863037329905963</v>
+        <v>1.84130058907741</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.968686743353788</v>
@@ -20825,7 +20717,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.866522759121539</v>
+        <v>1.852554710373413</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.469662985841561</v>
@@ -20914,7 +20806,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.840607888279111</v>
+        <v>1.830044256302062</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.726468382953379</v>
@@ -21003,7 +20895,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.828610344537136</v>
+        <v>1.818464697481402</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.970210205169047</v>
@@ -21092,7 +20984,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.825853793374027</v>
+        <v>1.814725288197855</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.391775027516371</v>
@@ -21181,7 +21073,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.819986991561922</v>
+        <v>1.811055180926537</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.880513682718936</v>
@@ -21270,7 +21162,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.820531652722865</v>
+        <v>1.813478253755703</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.686092363498662</v>
@@ -21359,7 +21251,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.810789074244635</v>
+        <v>1.799320236036575</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.511686914058099</v>
@@ -21448,7 +21340,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.810610331498921</v>
+        <v>1.793093212073786</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.094123358012099</v>
@@ -21537,7 +21429,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.8108495796933</v>
+        <v>1.792380076167738</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.993311960153203</v>
@@ -21626,7 +21518,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.801741525154249</v>
+        <v>1.784713035720251</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.669928134810973</v>
@@ -21715,7 +21607,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.799365065389982</v>
+        <v>1.785275675386736</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.252510480148024</v>
@@ -21804,7 +21696,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.79892820966125</v>
+        <v>1.787245835657904</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.483867552916196</v>
@@ -21893,7 +21785,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.799026924040244</v>
+        <v>1.788935950145051</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.536784574693583</v>
@@ -22179,7 +22071,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.800181566753383</v>
+        <v>1.760265998692376</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.574340095788257</v>
@@ -22268,7 +22160,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.809856730517272</v>
+        <v>1.769182608822662</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.108588378094204</v>
@@ -22357,7 +22249,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.823778342245804</v>
+        <v>1.783067597193968</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.279766456029626</v>
@@ -22446,7 +22338,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.82726860620402</v>
+        <v>1.784620247076645</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.384902747760691</v>
@@ -22535,7 +22427,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.827500661408757</v>
+        <v>1.786383601570694</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.534777633405254</v>
@@ -22624,7 +22516,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.837085759105693</v>
+        <v>1.797710456263484</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.359347405915736</v>
@@ -22713,7 +22605,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.842735217406657</v>
+        <v>1.806312427405021</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.159067809879883</v>
@@ -22802,7 +22694,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.839893193071007</v>
+        <v>1.802959631155686</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.508607302593827</v>
@@ -22891,7 +22783,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.837179925216289</v>
+        <v>1.797972942759733</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.523819551873369</v>
@@ -22980,7 +22872,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.829907526271777</v>
+        <v>1.786695248185732</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.727005651425194</v>
@@ -23069,7 +22961,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.829911660380621</v>
+        <v>1.788015064831439</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.852734921722588</v>
@@ -23158,7 +23050,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.834830428109434</v>
+        <v>1.783799316269842</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.38134522858021</v>
@@ -23247,7 +23139,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.838166166059129</v>
+        <v>1.787723512887867</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.679789503085904</v>
@@ -23336,7 +23228,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.842391872774078</v>
+        <v>1.79357476001456</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.525683897760632</v>
@@ -23425,7 +23317,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.849280863909761</v>
+        <v>1.798439931592636</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.577832891362536</v>
@@ -23514,7 +23406,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.843990450643362</v>
+        <v>1.797167018489211</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.180500641794858</v>
@@ -23603,7 +23495,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.834220515325409</v>
+        <v>1.792548791000596</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>4.097895787287237</v>
@@ -23692,7 +23584,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.824570767116177</v>
+        <v>1.779381556818172</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.103387370342327</v>
@@ -23781,7 +23673,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.823520722520661</v>
+        <v>1.778829246663379</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.327111611134572</v>
@@ -23870,7 +23762,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.830918539254035</v>
+        <v>1.785862237635572</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.452103511672456</v>
@@ -23959,7 +23851,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.816547618111113</v>
+        <v>1.770642067019737</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.012629960855254</v>
@@ -24048,7 +23940,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.810983782562771</v>
+        <v>1.764275055954282</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.480864698752643</v>
@@ -24137,7 +24029,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.79009885609648</v>
+        <v>1.747586049865078</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.989175888698533</v>
@@ -24226,7 +24118,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.782522928299864</v>
+        <v>1.742213318779781</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.209368280101967</v>
@@ -24315,7 +24207,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.794356766312962</v>
+        <v>1.755583550885314</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.59236420950167</v>
@@ -24404,7 +24296,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.781166860740475</v>
+        <v>1.741936516747285</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.940030568744502</v>
@@ -24493,7 +24385,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.773208162511013</v>
+        <v>1.734390036066118</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.382514375200999</v>
@@ -24582,7 +24474,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.77469217622156</v>
+        <v>1.727882987021789</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.74008657357536</v>
@@ -24671,7 +24563,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.765518454380768</v>
+        <v>1.715467109479729</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.997632583632929</v>
@@ -24760,7 +24652,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.772179078654557</v>
+        <v>1.71884115170407</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.73755825248427</v>
@@ -24849,7 +24741,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.779996452379678</v>
+        <v>1.726009522733587</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.146556613619834</v>
@@ -24938,7 +24830,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.781086955064459</v>
+        <v>1.727549013277426</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.300719099856578</v>
@@ -25027,7 +24919,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.788808178011035</v>
+        <v>1.737976360490596</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.092920242063939</v>
@@ -25116,7 +25008,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.785688322038243</v>
+        <v>1.732612300723879</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.551092415547263</v>
@@ -25205,7 +25097,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.787733920063413</v>
+        <v>1.734453583947882</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.032510281075469</v>
@@ -25294,7 +25186,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.790178536127744</v>
+        <v>1.733713331514608</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.836904713412431</v>
@@ -25383,7 +25275,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.786883118975516</v>
+        <v>1.738813597128996</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.527873954040477</v>
@@ -25472,7 +25364,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.814265989017786</v>
+        <v>1.756908060550449</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.459531401512358</v>
@@ -25561,7 +25453,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.818385371121114</v>
+        <v>1.755351658478677</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.085923529472182</v>
@@ -25650,7 +25542,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.812731612426302</v>
+        <v>1.755011841457585</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.278879159820386</v>
@@ -25739,7 +25631,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.822446592898995</v>
+        <v>1.762584296969271</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.055446417173179</v>
@@ -25828,7 +25720,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.82555676725047</v>
+        <v>1.771440683763736</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.273660261869749</v>
@@ -25917,7 +25809,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.832339762147589</v>
+        <v>1.786998155853489</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.737266514559722</v>
@@ -26006,7 +25898,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.844903272218995</v>
+        <v>1.804404466793266</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>4.57096928713486</v>
@@ -26095,7 +25987,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.846600118034562</v>
+        <v>1.801428674105063</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.189729647736856</v>
@@ -26184,7 +26076,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.848760870908024</v>
+        <v>1.801717099499998</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.74599472003981</v>
@@ -26273,7 +26165,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.853022355979088</v>
+        <v>1.806265076897047</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.56290681057249</v>
@@ -26362,7 +26254,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.854939864204073</v>
+        <v>1.807230786802281</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.657775749442957</v>
@@ -26451,7 +26343,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.864796130417109</v>
+        <v>1.820640717486222</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.738863122685799</v>
@@ -26540,7 +26432,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.848272348301286</v>
+        <v>1.814167044920391</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.34963002787118</v>
@@ -26629,7 +26521,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.852423114086148</v>
+        <v>1.818536305051941</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.255788518101881</v>
@@ -26718,7 +26610,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.849138565180271</v>
+        <v>1.809663453574156</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.656836507304685</v>
@@ -26807,7 +26699,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.85921870397128</v>
+        <v>1.822469551323925</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.287610415312274</v>
@@ -26896,7 +26788,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.86982622240512</v>
+        <v>1.840548689864378</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.576214205744297</v>
@@ -26985,7 +26877,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.864854457021578</v>
+        <v>1.834566678830309</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.293584774973497</v>
@@ -27074,7 +26966,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.865760533991863</v>
+        <v>1.83676302411329</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.052899274771913</v>
@@ -27163,7 +27055,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.8649926506331</v>
+        <v>1.832746641043438</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.780653709156881</v>
@@ -27252,7 +27144,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.862112829185694</v>
+        <v>1.828930792494692</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.168610257218138</v>
@@ -27341,7 +27233,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.860180886428708</v>
+        <v>1.825605179357567</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.988671171991311</v>
@@ -27430,7 +27322,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.861479614711924</v>
+        <v>1.826564858024057</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.490517340349747</v>
@@ -27519,7 +27411,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.863112948073964</v>
+        <v>1.832682598029887</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.066674269794659</v>
@@ -27805,7 +27697,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.685037264430589</v>
+        <v>1.639823321790363</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.804590391599803</v>
@@ -27894,7 +27786,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.670729550866693</v>
+        <v>1.627971897190575</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.860662425332227</v>
@@ -27983,7 +27875,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.666740017424277</v>
+        <v>1.625005322132607</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.925905064602161</v>
@@ -28072,7 +27964,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.678673627808063</v>
+        <v>1.636968254171754</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.611604535745233</v>
@@ -28161,7 +28053,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.700702202163369</v>
+        <v>1.653744328913356</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.398312323397496</v>
@@ -28250,7 +28142,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.696159735729578</v>
+        <v>1.65226842814771</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.3447377352659</v>
@@ -28339,7 +28231,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.692474808658456</v>
+        <v>1.646373239191036</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.180531690189645</v>
@@ -28428,7 +28320,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.689998078604155</v>
+        <v>1.645956266636371</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.383139874561534</v>
@@ -28517,7 +28409,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.688834523551785</v>
+        <v>1.643516351531357</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.278270332692307</v>
@@ -28606,7 +28498,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.690706871960215</v>
+        <v>1.64309631770576</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.883036532299224</v>
@@ -28695,7 +28587,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.681864970484384</v>
+        <v>1.640061287000133</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.133739185645597</v>
@@ -28784,7 +28676,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.674163640341449</v>
+        <v>1.628868177707324</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.2595280471369</v>
@@ -28873,7 +28765,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.686751713252791</v>
+        <v>1.641112016956634</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.336724148171018</v>
@@ -28962,7 +28854,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.682278708332923</v>
+        <v>1.633564736234335</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.250742972247814</v>
@@ -29051,7 +28943,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.668997224635761</v>
+        <v>1.617289068373366</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.127953007888116</v>
@@ -29140,7 +29032,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.671399623596796</v>
+        <v>1.615267964579706</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.257813086948475</v>
@@ -29229,7 +29121,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.672778289587818</v>
+        <v>1.623229043943279</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.192215528522821</v>
@@ -29318,7 +29210,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.673384298299976</v>
+        <v>1.627075092338659</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.357281969396551</v>
@@ -29407,7 +29299,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.674837102045434</v>
+        <v>1.623424692462899</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.053572512261586</v>
@@ -29496,7 +29388,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.68303327984255</v>
+        <v>1.629776506183602</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.406216428007907</v>
@@ -29585,7 +29477,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.672081834336939</v>
+        <v>1.622048229888341</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.560981734270651</v>
@@ -29674,7 +29566,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.674532698737989</v>
+        <v>1.622332382865704</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.568402795646026</v>
@@ -29763,7 +29655,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.659762994486887</v>
+        <v>1.610731309640935</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.62477467135905</v>
@@ -29852,7 +29744,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.659574047177102</v>
+        <v>1.612012887798198</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.171824089783668</v>
@@ -29941,7 +29833,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.657833894289553</v>
+        <v>1.612778186685171</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.715511680308285</v>
@@ -30030,7 +29922,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.670497519849118</v>
+        <v>1.621433801528012</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.517678038741153</v>
@@ -30119,7 +30011,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.671345200835526</v>
+        <v>1.626248164681584</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.309999055607692</v>
@@ -30208,7 +30100,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.660063644326074</v>
+        <v>1.61506352713387</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.168811250170721</v>
@@ -30297,7 +30189,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.646789872562364</v>
+        <v>1.606744993156197</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.575370217875347</v>
@@ -30386,7 +30278,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.649165714921403</v>
+        <v>1.614631362302942</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.246954906056968</v>
@@ -30475,7 +30367,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.648310094034442</v>
+        <v>1.617569089638838</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.554678450474122</v>
@@ -30564,7 +30456,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.64432278354626</v>
+        <v>1.611967685416916</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.236543484595572</v>
@@ -30653,7 +30545,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.631744951704629</v>
+        <v>1.593899482840919</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.351893223781726</v>
@@ -30742,7 +30634,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.638361022081827</v>
+        <v>1.599044890444145</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.42825412863423</v>
@@ -30831,7 +30723,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.641281510480777</v>
+        <v>1.593068250023737</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.621014536804453</v>
@@ -30920,7 +30812,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.65337839625237</v>
+        <v>1.601656405495036</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.22655228541148</v>
@@ -31009,7 +30901,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.641727272342087</v>
+        <v>1.589910119284168</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.567534814070096</v>
@@ -31098,7 +30990,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.660768864663138</v>
+        <v>1.605911752149741</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.165316133002761</v>
@@ -31187,7 +31079,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.662329061922225</v>
+        <v>1.605146445974812</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.337458470177989</v>
@@ -31276,7 +31168,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.660211201524138</v>
+        <v>1.601723835541494</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.27941214334558</v>
@@ -31365,7 +31257,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.646243090459747</v>
+        <v>1.58837922180606</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.38231049747096</v>
@@ -31454,7 +31346,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.647508430411558</v>
+        <v>1.583029492774833</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.752254588486683</v>
@@ -31543,7 +31435,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.650576716098453</v>
+        <v>1.585168304809731</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.194458142279131</v>
@@ -31632,7 +31524,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.664368271491943</v>
+        <v>1.592766960596227</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.587423528825426</v>
@@ -31721,7 +31613,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.671303909137937</v>
+        <v>1.600214711137782</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.50974458713559</v>
@@ -31810,7 +31702,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.678864485259276</v>
+        <v>1.607649740326924</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.766807897843067</v>
@@ -31899,7 +31791,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.675163304130628</v>
+        <v>1.610202415511218</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.795267723221541</v>
@@ -31988,7 +31880,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.680962352576009</v>
+        <v>1.622625666284764</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.68947059906096</v>
@@ -32077,7 +31969,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.673286106592339</v>
+        <v>1.620612931977535</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.688539315891493</v>
@@ -32166,7 +32058,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.660633504201673</v>
+        <v>1.620067803750177</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.279389995364765</v>
@@ -32255,7 +32147,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.642325317111051</v>
+        <v>1.608945397432528</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.038314328791644</v>
@@ -32344,7 +32236,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.65307841072941</v>
+        <v>1.627216903040868</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.904356426172749</v>
@@ -32433,7 +32325,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.671587543307619</v>
+        <v>1.644299032248978</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.980006594094169</v>
@@ -32522,7 +32414,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.675524127873407</v>
+        <v>1.649489031782548</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.177824956600029</v>
@@ -32611,7 +32503,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.675681054636293</v>
+        <v>1.649825141525747</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.819528670575285</v>
@@ -32700,7 +32592,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.686392478808481</v>
+        <v>1.65826858774666</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.124931735346941</v>
@@ -32789,7 +32681,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.689593267934423</v>
+        <v>1.671972276467469</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.086028237092433</v>
@@ -32878,7 +32770,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.689145792292811</v>
+        <v>1.667720899475161</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.213672947144208</v>
@@ -32967,7 +32859,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.684804149011345</v>
+        <v>1.666733014869336</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.976673124189902</v>
@@ -33056,7 +32948,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.679873812493077</v>
+        <v>1.665059432246569</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.044297022040571</v>
@@ -33145,7 +33037,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.679032489965676</v>
+        <v>1.663710215034739</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.187430595181001</v>
@@ -33431,7 +33323,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.689551346038348</v>
+        <v>1.686898196295265</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.752640695798407</v>
@@ -33520,7 +33412,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.677939751017773</v>
+        <v>1.681163178654566</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.828910607936116</v>
@@ -33609,7 +33501,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.689749059312733</v>
+        <v>1.696298753699967</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.869994342261502</v>
@@ -33698,7 +33590,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.693195664905861</v>
+        <v>1.702641098936982</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.724416534308923</v>
@@ -33787,7 +33679,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.693573814769826</v>
+        <v>1.706410040719151</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.74592968782556</v>
@@ -33876,7 +33768,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.70267008316291</v>
+        <v>1.717586186959847</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.786992818527033</v>
@@ -33965,7 +33857,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.714849532940325</v>
+        <v>1.730997995896576</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.573022783756914</v>
@@ -34054,7 +33946,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.717293311937083</v>
+        <v>1.731903040086762</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.9256246194206</v>
@@ -34143,7 +34035,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.700511360897454</v>
+        <v>1.713233785180452</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.726010105854628</v>
@@ -34232,7 +34124,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.70062899238795</v>
+        <v>1.71655108930081</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.740552351317783</v>
@@ -34321,7 +34213,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.703631147637215</v>
+        <v>1.720621157964796</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.922053953414242</v>
@@ -34410,7 +34302,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.735006440073371</v>
+        <v>1.743056144226069</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.12746055119035</v>
@@ -34499,7 +34391,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.751477001466579</v>
+        <v>1.756739370686419</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.446453996911683</v>
@@ -34588,7 +34480,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.773445629433734</v>
+        <v>1.772447701514252</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.763622570569191</v>
@@ -34677,7 +34569,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.798297759388388</v>
+        <v>1.800845693740936</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.998234077567129</v>
@@ -34766,7 +34658,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.815533638091389</v>
+        <v>1.817851903278661</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.357982073596205</v>
@@ -34855,7 +34747,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.81011924097835</v>
+        <v>1.815269392964834</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.140678171354848</v>
@@ -34944,7 +34836,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.807632787085454</v>
+        <v>1.810136206099132</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.914719954521185</v>
@@ -35033,7 +34925,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.80225118772843</v>
+        <v>1.80211313756872</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.755611072449924</v>
@@ -35122,7 +35014,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.81980978643777</v>
+        <v>1.813785025884583</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.361465609279259</v>
@@ -35211,7 +35103,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.792784373931094</v>
+        <v>1.7880074139255</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.12334697777406</v>
@@ -35300,7 +35192,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.780493141903613</v>
+        <v>1.779441391100111</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.071625544307759</v>
@@ -35389,7 +35281,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.722500175978751</v>
+        <v>1.724557007232674</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.142081985719408</v>
@@ -35478,7 +35370,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.729105853196301</v>
+        <v>1.734446526680049</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.171396411463916</v>
@@ -35567,7 +35459,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.728518353652879</v>
+        <v>1.729861164233422</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.064006827721088</v>
@@ -35656,7 +35548,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.703639674187278</v>
+        <v>1.704780206468073</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.996897552827486</v>
@@ -35745,7 +35637,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.698904287452019</v>
+        <v>1.699782149128742</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.834384766236013</v>
@@ -35834,7 +35726,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.728771349784602</v>
+        <v>1.724561373238154</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.093924089677245</v>
@@ -35923,7 +35815,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.722826076195652</v>
+        <v>1.71272706668467</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.924871392407642</v>
@@ -36012,7 +35904,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.729446911432635</v>
+        <v>1.71832608062679</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.889831209629467</v>
@@ -36101,7 +35993,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.727020589929514</v>
+        <v>1.714138492428517</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.828324244645129</v>
@@ -36190,7 +36082,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.725508157155598</v>
+        <v>1.711104232718262</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.007145412431208</v>
@@ -36279,7 +36171,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.719880759472451</v>
+        <v>1.706800730044539</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.95372081550109</v>
@@ -36368,7 +36260,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.72051001584679</v>
+        <v>1.708737008332841</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.97343814267629</v>
@@ -36457,7 +36349,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.724250234691358</v>
+        <v>1.714929755201704</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.86964339341682</v>
@@ -36546,7 +36438,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.728907015296352</v>
+        <v>1.722033254147448</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.042019849476077</v>
@@ -36635,7 +36527,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.71253342041327</v>
+        <v>1.711759390014722</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.891560666400552</v>
@@ -36724,7 +36616,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.789040555422155</v>
+        <v>1.779046138499521</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.795900916233542</v>
@@ -36813,7 +36705,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.791379087551386</v>
+        <v>1.779428227313972</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.841173452237553</v>
@@ -36902,7 +36794,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.79147965493842</v>
+        <v>1.783037077622156</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.948286667022475</v>
@@ -36991,7 +36883,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.819190477614048</v>
+        <v>1.808787363923791</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.224674207586568</v>
@@ -37080,7 +36972,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.821597504408328</v>
+        <v>1.814944206885374</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.145636043084277</v>
@@ -37169,7 +37061,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.823868819436862</v>
+        <v>1.814366876511894</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.003477263025928</v>
@@ -37258,7 +37150,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.859908030230478</v>
+        <v>1.843360731597575</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.108189516605405</v>
@@ -37347,7 +37239,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.856927166205075</v>
+        <v>1.839261463306511</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.983831229583179</v>
@@ -37436,7 +37328,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.859286953787602</v>
+        <v>1.838147212336819</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.164953965602215</v>
@@ -37525,7 +37417,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.868759716700551</v>
+        <v>1.849023207525854</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.344563347422999</v>
@@ -37614,7 +37506,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.875498593806658</v>
+        <v>1.854801263731779</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.358662445859038</v>
@@ -37703,7 +37595,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.884913019783782</v>
+        <v>1.869775052994624</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.954893518067145</v>
@@ -37792,7 +37684,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.829891163418355</v>
+        <v>1.819266149766537</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.140722022007568</v>
@@ -37881,7 +37773,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.819310371605986</v>
+        <v>1.814800641497801</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.140609181904009</v>
@@ -37970,7 +37862,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.811899632850997</v>
+        <v>1.802678455098636</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.121366103707364</v>
@@ -38059,7 +37951,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.826373352607168</v>
+        <v>1.818267068496205</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.154483952464463</v>
@@ -38148,7 +38040,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.84398119424314</v>
+        <v>1.83734260357614</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.578700760517967</v>
@@ -38237,7 +38129,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.812635393963114</v>
+        <v>1.810399373227054</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.556032765163828</v>
@@ -38326,7 +38218,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.817736026792274</v>
+        <v>1.816005354725809</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.625739277823112</v>
@@ -38415,7 +38307,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.819102338161345</v>
+        <v>1.814005675847618</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.341473900301343</v>
@@ -38504,7 +38396,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.807624857463379</v>
+        <v>1.806007411835876</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.733260505508316</v>
@@ -38593,7 +38485,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.809124314967571</v>
+        <v>1.809238987381258</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.733235227636933</v>
@@ -38682,7 +38574,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.818975442041054</v>
+        <v>1.816537974069957</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.7178509269964</v>
@@ -38771,7 +38663,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.810872339240783</v>
+        <v>1.812025322857338</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.795970418732256</v>
